--- a/team_specific_matrix/Villanova_B.xlsx
+++ b/team_specific_matrix/Villanova_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2064516129032258</v>
+        <v>0.2135922330097087</v>
       </c>
       <c r="C2">
-        <v>0.5161290322580645</v>
+        <v>0.5145631067961165</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01935483870967742</v>
+        <v>0.01456310679611651</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1419354838709677</v>
+        <v>0.1504854368932039</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1161290322580645</v>
+        <v>0.1067961165048544</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02439024390243903</v>
+        <v>0.01801801801801802</v>
       </c>
       <c r="C3">
-        <v>0.04878048780487805</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01219512195121951</v>
+        <v>0.01801801801801802</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8170731707317073</v>
+        <v>0.7477477477477478</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.0975609756097561</v>
+        <v>0.1621621621621622</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.05263157894736842</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="P4">
-        <v>0.8421052631578947</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1052631578947368</v>
+        <v>0.1739130434782609</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06134969325153374</v>
+        <v>0.07109004739336493</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006134969325153374</v>
+        <v>0.004739336492890996</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0736196319018405</v>
+        <v>0.08056872037914692</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2699386503067485</v>
+        <v>0.2464454976303317</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01226993865030675</v>
+        <v>0.01421800947867299</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1042944785276074</v>
+        <v>0.1137440758293839</v>
       </c>
       <c r="R6">
-        <v>0.07975460122699386</v>
+        <v>0.07109004739336493</v>
       </c>
       <c r="S6">
-        <v>0.392638036809816</v>
+        <v>0.3981042654028436</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07272727272727272</v>
+        <v>0.08843537414965986</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.00909090909090909</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.09090909090909091</v>
+        <v>0.08843537414965986</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08181818181818182</v>
+        <v>0.06802721088435375</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1545454545454545</v>
+        <v>0.163265306122449</v>
       </c>
       <c r="R7">
-        <v>0.08181818181818182</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="S7">
-        <v>0.509090909090909</v>
+        <v>0.4897959183673469</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07142857142857142</v>
+        <v>0.06542056074766354</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.007936507936507936</v>
+        <v>0.006230529595015576</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05952380952380952</v>
+        <v>0.06230529595015576</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0873015873015873</v>
+        <v>0.1090342679127726</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01587301587301587</v>
+        <v>0.01246105919003115</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1746031746031746</v>
+        <v>0.1713395638629283</v>
       </c>
       <c r="R8">
-        <v>0.0992063492063492</v>
+        <v>0.1090342679127726</v>
       </c>
       <c r="S8">
-        <v>0.4841269841269841</v>
+        <v>0.4641744548286604</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07407407407407407</v>
+        <v>0.0660377358490566</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0308641975308642</v>
+        <v>0.02358490566037736</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04938271604938271</v>
+        <v>0.0660377358490566</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06172839506172839</v>
+        <v>0.07075471698113207</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.006172839506172839</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.191358024691358</v>
+        <v>0.169811320754717</v>
       </c>
       <c r="R9">
-        <v>0.09259259259259259</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="S9">
-        <v>0.4938271604938271</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08751608751608751</v>
+        <v>0.0954356846473029</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01287001287001287</v>
+        <v>0.01244813278008299</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.002074688796680498</v>
       </c>
       <c r="F10">
-        <v>0.09009009009009009</v>
+        <v>0.09336099585062241</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1068211068211068</v>
+        <v>0.1026970954356846</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01673101673101673</v>
+        <v>0.01452282157676349</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2149292149292149</v>
+        <v>0.1970954356846473</v>
       </c>
       <c r="R10">
-        <v>0.0990990990990991</v>
+        <v>0.09958506224066389</v>
       </c>
       <c r="S10">
-        <v>0.371943371943372</v>
+        <v>0.3827800829875518</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1197183098591549</v>
+        <v>0.1122994652406417</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06338028169014084</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="K11">
-        <v>0.1408450704225352</v>
+        <v>0.1336898395721925</v>
       </c>
       <c r="L11">
-        <v>0.6690140845070423</v>
+        <v>0.6898395721925134</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.007042253521126761</v>
+        <v>0.0053475935828877</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7475728155339806</v>
+        <v>0.781021897810219</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1262135922330097</v>
+        <v>0.1167883211678832</v>
       </c>
       <c r="K12">
-        <v>0.03883495145631068</v>
+        <v>0.0291970802919708</v>
       </c>
       <c r="L12">
-        <v>0.06796116504854369</v>
+        <v>0.0583941605839416</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01941747572815534</v>
+        <v>0.0145985401459854</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8181818181818182</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1363636363636364</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04545454545454546</v>
+        <v>0.03703703703703703</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01739130434782609</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1304347826086956</v>
+        <v>0.1233766233766234</v>
       </c>
       <c r="I15">
-        <v>0.09565217391304348</v>
+        <v>0.1168831168831169</v>
       </c>
       <c r="J15">
-        <v>0.4347826086956522</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="K15">
-        <v>0.06956521739130435</v>
+        <v>0.07792207792207792</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02608695652173913</v>
+        <v>0.01948051948051948</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06086956521739131</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1652173913043478</v>
+        <v>0.1688311688311688</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0196078431372549</v>
+        <v>0.01550387596899225</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1176470588235294</v>
+        <v>0.1395348837209302</v>
       </c>
       <c r="I16">
-        <v>0.107843137254902</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="J16">
-        <v>0.4705882352941176</v>
+        <v>0.4418604651162791</v>
       </c>
       <c r="K16">
-        <v>0.09803921568627451</v>
+        <v>0.1007751937984496</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.009803921568627451</v>
+        <v>0.01550387596899225</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.007751937984496124</v>
       </c>
       <c r="O16">
-        <v>0.04901960784313725</v>
+        <v>0.03875968992248062</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1274509803921569</v>
+        <v>0.1472868217054264</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0108695652173913</v>
+        <v>0.00911854103343465</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1992753623188406</v>
+        <v>0.1914893617021277</v>
       </c>
       <c r="I17">
-        <v>0.1123188405797101</v>
+        <v>0.1124620060790274</v>
       </c>
       <c r="J17">
-        <v>0.4347826086956522</v>
+        <v>0.4437689969604863</v>
       </c>
       <c r="K17">
-        <v>0.05072463768115942</v>
+        <v>0.05167173252279635</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02536231884057971</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="N17">
-        <v>0.003623188405797101</v>
+        <v>0.00303951367781155</v>
       </c>
       <c r="O17">
-        <v>0.06159420289855073</v>
+        <v>0.060790273556231</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1014492753623188</v>
+        <v>0.1063829787234043</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01438848920863309</v>
+        <v>0.01685393258426966</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1942446043165468</v>
+        <v>0.1853932584269663</v>
       </c>
       <c r="I18">
-        <v>0.1007194244604317</v>
+        <v>0.1123595505617977</v>
       </c>
       <c r="J18">
-        <v>0.4172661870503597</v>
+        <v>0.3876404494382023</v>
       </c>
       <c r="K18">
-        <v>0.07194244604316546</v>
+        <v>0.07865168539325842</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02158273381294964</v>
+        <v>0.01685393258426966</v>
       </c>
       <c r="N18">
-        <v>0.007194244604316547</v>
+        <v>0.005617977528089887</v>
       </c>
       <c r="O18">
-        <v>0.03597122302158273</v>
+        <v>0.05056179775280899</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1366906474820144</v>
+        <v>0.1460674157303371</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01772151898734177</v>
+        <v>0.01653696498054475</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1835443037974684</v>
+        <v>0.183852140077821</v>
       </c>
       <c r="I19">
-        <v>0.1189873417721519</v>
+        <v>0.1206225680933852</v>
       </c>
       <c r="J19">
-        <v>0.4037974683544304</v>
+        <v>0.3920233463035019</v>
       </c>
       <c r="K19">
-        <v>0.09240506329113925</v>
+        <v>0.0963035019455253</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01265822784810127</v>
+        <v>0.01361867704280156</v>
       </c>
       <c r="N19">
-        <v>0.001265822784810127</v>
+        <v>0.0009727626459143969</v>
       </c>
       <c r="O19">
-        <v>0.06582278481012659</v>
+        <v>0.07101167315175097</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1037974683544304</v>
+        <v>0.1050583657587549</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Villanova_B.xlsx
+++ b/team_specific_matrix/Villanova_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2135922330097087</v>
+        <v>0.2096069868995633</v>
       </c>
       <c r="C2">
-        <v>0.5145631067961165</v>
+        <v>0.5240174672489083</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01456310679611651</v>
+        <v>0.01310043668122271</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1504854368932039</v>
+        <v>0.1528384279475982</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1067961165048544</v>
+        <v>0.1004366812227074</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01801801801801802</v>
+        <v>0.01574803149606299</v>
       </c>
       <c r="C3">
-        <v>0.05405405405405406</v>
+        <v>0.06299212598425197</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01801801801801802</v>
+        <v>0.02362204724409449</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7477477477477478</v>
+        <v>0.7559055118110236</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1621621621621622</v>
+        <v>0.1417322834645669</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.04347826086956522</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="P4">
-        <v>0.7826086956521739</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1739130434782609</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07109004739336493</v>
+        <v>0.06837606837606838</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004739336492890996</v>
+        <v>0.004273504273504274</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08056872037914692</v>
+        <v>0.08974358974358974</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2464454976303317</v>
+        <v>0.2435897435897436</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01421800947867299</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1137440758293839</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="R6">
-        <v>0.07109004739336493</v>
+        <v>0.06837606837606838</v>
       </c>
       <c r="S6">
-        <v>0.3981042654028436</v>
+        <v>0.4017094017094017</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08843537414965986</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02040816326530612</v>
+        <v>0.02484472049689441</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.08843537414965986</v>
+        <v>0.09937888198757763</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06802721088435375</v>
+        <v>0.06211180124223602</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.163265306122449</v>
+        <v>0.15527950310559</v>
       </c>
       <c r="R7">
-        <v>0.08163265306122448</v>
+        <v>0.08074534161490683</v>
       </c>
       <c r="S7">
-        <v>0.4897959183673469</v>
+        <v>0.4906832298136646</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06542056074766354</v>
+        <v>0.06388888888888888</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.006230529595015576</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06230529595015576</v>
+        <v>0.06111111111111111</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1090342679127726</v>
+        <v>0.1083333333333333</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01246105919003115</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1713395638629283</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R8">
-        <v>0.1090342679127726</v>
+        <v>0.1138888888888889</v>
       </c>
       <c r="S8">
-        <v>0.4641744548286604</v>
+        <v>0.4666666666666667</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0660377358490566</v>
+        <v>0.07053941908713693</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02358490566037736</v>
+        <v>0.02489626556016597</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0660377358490566</v>
+        <v>0.07883817427385892</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07075471698113207</v>
+        <v>0.06639004149377593</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.009433962264150943</v>
+        <v>0.01244813278008299</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.169811320754717</v>
+        <v>0.1618257261410788</v>
       </c>
       <c r="R9">
-        <v>0.09433962264150944</v>
+        <v>0.0954356846473029</v>
       </c>
       <c r="S9">
-        <v>0.5</v>
+        <v>0.4896265560165975</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0954356846473029</v>
+        <v>0.0959409594095941</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01244813278008299</v>
+        <v>0.01476014760147601</v>
       </c>
       <c r="E10">
-        <v>0.002074688796680498</v>
+        <v>0.001845018450184502</v>
       </c>
       <c r="F10">
-        <v>0.09336099585062241</v>
+        <v>0.08763837638376384</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1026970954356846</v>
+        <v>0.1051660516605166</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01452282157676349</v>
+        <v>0.01291512915129151</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1970954356846473</v>
+        <v>0.1881918819188192</v>
       </c>
       <c r="R10">
-        <v>0.09958506224066389</v>
+        <v>0.1033210332103321</v>
       </c>
       <c r="S10">
-        <v>0.3827800829875518</v>
+        <v>0.3902214022140221</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1122994652406417</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05882352941176471</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="K11">
-        <v>0.1336898395721925</v>
+        <v>0.1346153846153846</v>
       </c>
       <c r="L11">
-        <v>0.6898395721925134</v>
+        <v>0.6875</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0053475935828877</v>
+        <v>0.004807692307692308</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.781021897810219</v>
+        <v>0.7748344370860927</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1167883211678832</v>
+        <v>0.1324503311258278</v>
       </c>
       <c r="K12">
-        <v>0.0291970802919708</v>
+        <v>0.02649006622516556</v>
       </c>
       <c r="L12">
-        <v>0.0583941605839416</v>
+        <v>0.05298013245033113</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0145985401459854</v>
+        <v>0.01324503311258278</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7777777777777778</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1851851851851852</v>
+        <v>0.2</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03703703703703703</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01298701298701299</v>
+        <v>0.01142857142857143</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1233766233766234</v>
+        <v>0.1314285714285714</v>
       </c>
       <c r="I15">
-        <v>0.1168831168831169</v>
+        <v>0.12</v>
       </c>
       <c r="J15">
-        <v>0.4090909090909091</v>
+        <v>0.4114285714285714</v>
       </c>
       <c r="K15">
-        <v>0.07792207792207792</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01948051948051948</v>
+        <v>0.01714285714285714</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07142857142857142</v>
+        <v>0.06857142857142857</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1688311688311688</v>
+        <v>0.1542857142857143</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01550387596899225</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1395348837209302</v>
+        <v>0.1447368421052632</v>
       </c>
       <c r="I16">
-        <v>0.09302325581395349</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="J16">
-        <v>0.4418604651162791</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="K16">
-        <v>0.1007751937984496</v>
+        <v>0.08552631578947369</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01550387596899225</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="N16">
-        <v>0.007751937984496124</v>
+        <v>0.006578947368421052</v>
       </c>
       <c r="O16">
-        <v>0.03875968992248062</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1472868217054264</v>
+        <v>0.131578947368421</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.00911854103343465</v>
+        <v>0.008474576271186441</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1914893617021277</v>
+        <v>0.1864406779661017</v>
       </c>
       <c r="I17">
-        <v>0.1124620060790274</v>
+        <v>0.1129943502824859</v>
       </c>
       <c r="J17">
-        <v>0.4437689969604863</v>
+        <v>0.4519774011299435</v>
       </c>
       <c r="K17">
-        <v>0.05167173252279635</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02127659574468085</v>
+        <v>0.02259887005649718</v>
       </c>
       <c r="N17">
-        <v>0.00303951367781155</v>
+        <v>0.002824858757062147</v>
       </c>
       <c r="O17">
-        <v>0.060790273556231</v>
+        <v>0.05932203389830509</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1063829787234043</v>
+        <v>0.1045197740112994</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01685393258426966</v>
+        <v>0.01463414634146342</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1853932584269663</v>
+        <v>0.1853658536585366</v>
       </c>
       <c r="I18">
-        <v>0.1123595505617977</v>
+        <v>0.1170731707317073</v>
       </c>
       <c r="J18">
-        <v>0.3876404494382023</v>
+        <v>0.3853658536585366</v>
       </c>
       <c r="K18">
-        <v>0.07865168539325842</v>
+        <v>0.09268292682926829</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01685393258426966</v>
+        <v>0.01951219512195122</v>
       </c>
       <c r="N18">
-        <v>0.005617977528089887</v>
+        <v>0.004878048780487805</v>
       </c>
       <c r="O18">
-        <v>0.05056179775280899</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1460674157303371</v>
+        <v>0.1317073170731707</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01653696498054475</v>
+        <v>0.01660839160839161</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.183852140077821</v>
+        <v>0.1853146853146853</v>
       </c>
       <c r="I19">
-        <v>0.1206225680933852</v>
+        <v>0.1215034965034965</v>
       </c>
       <c r="J19">
-        <v>0.3920233463035019</v>
+        <v>0.3916083916083916</v>
       </c>
       <c r="K19">
-        <v>0.0963035019455253</v>
+        <v>0.0944055944055944</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01361867704280156</v>
+        <v>0.01311188811188811</v>
       </c>
       <c r="N19">
-        <v>0.0009727626459143969</v>
+        <v>0.0008741258741258741</v>
       </c>
       <c r="O19">
-        <v>0.07101167315175097</v>
+        <v>0.07342657342657342</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1050583657587549</v>
+        <v>0.1031468531468532</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Villanova_B.xlsx
+++ b/team_specific_matrix/Villanova_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2096069868995633</v>
+        <v>0.2066115702479339</v>
       </c>
       <c r="C2">
-        <v>0.5240174672489083</v>
+        <v>0.5330578512396694</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01310043668122271</v>
+        <v>0.01239669421487603</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1528384279475982</v>
+        <v>0.1446280991735537</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1004366812227074</v>
+        <v>0.1033057851239669</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01574803149606299</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="C3">
-        <v>0.06299212598425197</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02362204724409449</v>
+        <v>0.02205882352941177</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7559055118110236</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1417322834645669</v>
+        <v>0.1397058823529412</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06837606837606838</v>
+        <v>0.06584362139917696</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004273504273504274</v>
+        <v>0.00411522633744856</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08974358974358974</v>
+        <v>0.09053497942386832</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2435897435897436</v>
+        <v>0.2345679012345679</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01282051282051282</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -782,10 +782,10 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="R6">
-        <v>0.06837606837606838</v>
+        <v>0.06584362139917696</v>
       </c>
       <c r="S6">
-        <v>0.4017094017094017</v>
+        <v>0.4156378600823045</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08695652173913043</v>
+        <v>0.08982035928143713</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02484472049689441</v>
+        <v>0.02395209580838323</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.09937888198757763</v>
+        <v>0.09580838323353294</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06211180124223602</v>
+        <v>0.05988023952095808</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.15527950310559</v>
+        <v>0.155688622754491</v>
       </c>
       <c r="R7">
-        <v>0.08074534161490683</v>
+        <v>0.08383233532934131</v>
       </c>
       <c r="S7">
-        <v>0.4906832298136646</v>
+        <v>0.4910179640718563</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06388888888888888</v>
+        <v>0.06504065040650407</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.008333333333333333</v>
+        <v>0.008130081300813009</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06111111111111111</v>
+        <v>0.06233062330623306</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1083333333333333</v>
+        <v>0.1165311653116531</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01111111111111111</v>
+        <v>0.01084010840108401</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1666666666666667</v>
+        <v>0.1707317073170732</v>
       </c>
       <c r="R8">
-        <v>0.1138888888888889</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="S8">
-        <v>0.4666666666666667</v>
+        <v>0.4552845528455284</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07053941908713693</v>
+        <v>0.07228915662650602</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02489626556016597</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07883817427385892</v>
+        <v>0.07630522088353414</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06639004149377593</v>
+        <v>0.06827309236947791</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01244813278008299</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1618257261410788</v>
+        <v>0.1606425702811245</v>
       </c>
       <c r="R9">
-        <v>0.0954356846473029</v>
+        <v>0.1044176706827309</v>
       </c>
       <c r="S9">
-        <v>0.4896265560165975</v>
+        <v>0.4819277108433735</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0959409594095941</v>
+        <v>0.09885260370697264</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01476014760147601</v>
+        <v>0.01412180052956752</v>
       </c>
       <c r="E10">
-        <v>0.001845018450184502</v>
+        <v>0.00176522506619594</v>
       </c>
       <c r="F10">
-        <v>0.08763837638376384</v>
+        <v>0.09002647837599294</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1051660516605166</v>
+        <v>0.1067961165048544</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01291512915129151</v>
+        <v>0.01323918799646955</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1881918819188192</v>
+        <v>0.1844660194174757</v>
       </c>
       <c r="R10">
-        <v>0.1033210332103321</v>
+        <v>0.1032656663724625</v>
       </c>
       <c r="S10">
-        <v>0.3902214022140221</v>
+        <v>0.3874669020300088</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1153846153846154</v>
+        <v>0.1209302325581395</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0576923076923077</v>
+        <v>0.05581395348837209</v>
       </c>
       <c r="K11">
-        <v>0.1346153846153846</v>
+        <v>0.1395348837209302</v>
       </c>
       <c r="L11">
-        <v>0.6875</v>
+        <v>0.6790697674418604</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.004807692307692308</v>
+        <v>0.004651162790697674</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7748344370860927</v>
+        <v>0.7792207792207793</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1324503311258278</v>
+        <v>0.1298701298701299</v>
       </c>
       <c r="K12">
-        <v>0.02649006622516556</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="L12">
-        <v>0.05298013245033113</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01324503311258278</v>
+        <v>0.01298701298701299</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01142857142857143</v>
+        <v>0.01081081081081081</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1314285714285714</v>
+        <v>0.1243243243243243</v>
       </c>
       <c r="I15">
-        <v>0.12</v>
+        <v>0.1297297297297297</v>
       </c>
       <c r="J15">
-        <v>0.4114285714285714</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="K15">
-        <v>0.08571428571428572</v>
+        <v>0.08648648648648649</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01714285714285714</v>
+        <v>0.01621621621621622</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06857142857142857</v>
+        <v>0.07567567567567568</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1542857142857143</v>
+        <v>0.1513513513513514</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0131578947368421</v>
+        <v>0.0125</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1447368421052632</v>
+        <v>0.1375</v>
       </c>
       <c r="I16">
-        <v>0.1052631578947368</v>
+        <v>0.10625</v>
       </c>
       <c r="J16">
-        <v>0.4473684210526316</v>
+        <v>0.44375</v>
       </c>
       <c r="K16">
-        <v>0.08552631578947369</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0131578947368421</v>
+        <v>0.0125</v>
       </c>
       <c r="N16">
-        <v>0.006578947368421052</v>
+        <v>0.00625</v>
       </c>
       <c r="O16">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.131578947368421</v>
+        <v>0.14375</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.008474576271186441</v>
+        <v>0.00821917808219178</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1864406779661017</v>
+        <v>0.1863013698630137</v>
       </c>
       <c r="I17">
-        <v>0.1129943502824859</v>
+        <v>0.1150684931506849</v>
       </c>
       <c r="J17">
-        <v>0.4519774011299435</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="K17">
-        <v>0.05084745762711865</v>
+        <v>0.04931506849315068</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02259887005649718</v>
+        <v>0.02191780821917808</v>
       </c>
       <c r="N17">
-        <v>0.002824858757062147</v>
+        <v>0.00273972602739726</v>
       </c>
       <c r="O17">
-        <v>0.05932203389830509</v>
+        <v>0.05753424657534247</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1045197740112994</v>
+        <v>0.1068493150684932</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01463414634146342</v>
+        <v>0.01401869158878505</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1853658536585366</v>
+        <v>0.1822429906542056</v>
       </c>
       <c r="I18">
-        <v>0.1170731707317073</v>
+        <v>0.1121495327102804</v>
       </c>
       <c r="J18">
-        <v>0.3853658536585366</v>
+        <v>0.3925233644859813</v>
       </c>
       <c r="K18">
-        <v>0.09268292682926829</v>
+        <v>0.09345794392523364</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01951219512195122</v>
+        <v>0.01869158878504673</v>
       </c>
       <c r="N18">
-        <v>0.004878048780487805</v>
+        <v>0.004672897196261682</v>
       </c>
       <c r="O18">
-        <v>0.04878048780487805</v>
+        <v>0.05607476635514019</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1317073170731707</v>
+        <v>0.1261682242990654</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01660839160839161</v>
+        <v>0.01607445008460237</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1853146853146853</v>
+        <v>0.1852791878172589</v>
       </c>
       <c r="I19">
-        <v>0.1215034965034965</v>
+        <v>0.1192893401015228</v>
       </c>
       <c r="J19">
-        <v>0.3916083916083916</v>
+        <v>0.3967851099830795</v>
       </c>
       <c r="K19">
-        <v>0.0944055944055944</v>
+        <v>0.09306260575296109</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01311188811188811</v>
+        <v>0.01269035532994924</v>
       </c>
       <c r="N19">
-        <v>0.0008741258741258741</v>
+        <v>0.001692047377326565</v>
       </c>
       <c r="O19">
-        <v>0.07342657342657342</v>
+        <v>0.07360406091370558</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1031468531468532</v>
+        <v>0.1015228426395939</v>
       </c>
     </row>
   </sheetData>
